--- a/records/Field operations.xlsx
+++ b/records/Field operations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="10560" tabRatio="630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="10560" tabRatio="630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CFCT" sheetId="5" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="TODO" sheetId="9" r:id="rId7"/>
     <sheet name="Ameriflux" sheetId="10" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -155,6 +152,30 @@
     <author>Patrick O'Keeffe</author>
   </authors>
   <commentList>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patrick O'Keeffe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+conflicting seed type</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
@@ -285,6 +306,30 @@
 suspected wrong
 maybe someone did
 90+15+15=140 lb/ac ~= 160 kg/ha</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patrick O'Keeffe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+probably incorrect, should discard</t>
         </r>
       </text>
     </comment>
@@ -471,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="291">
   <si>
     <t>Activity</t>
   </si>
@@ -560,9 +605,6 @@
     <t>Seed</t>
   </si>
   <si>
-    <t>peas</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -603,9 +645,6 @@
   </si>
   <si>
     <t>Email from Erin Brooks, 2016-11-29 9:21</t>
-  </si>
-  <si>
-    <t>Ref #</t>
   </si>
   <si>
     <t>Description</t>
@@ -825,32 +864,6 @@
     <t>2, 5</t>
   </si>
   <si>
-    <r>
-      <t>winter wheat (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tritcum aestivum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) @ 82 lbs/ac (94 kg/ha), Club variety "Cara"</t>
-    </r>
-  </si>
-  <si>
     <t>Roundup @ 20oz/ac (1.4 kg/ha)</t>
   </si>
   <si>
@@ -1513,6 +1526,53 @@
   </si>
   <si>
     <t>yield?</t>
+  </si>
+  <si>
+    <r>
+      <t>winter wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triticum aestivum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) @ 82 lbs/ac (94 kg/ha), Club variety "Cara"</t>
+    </r>
+  </si>
+  <si>
+    <t>2014-06-??</t>
+  </si>
+  <si>
+    <t>from logbook obs., between Jun 3-23</t>
+  </si>
+  <si>
+    <t>Email from Shelley Pressley, 2015-07-10 12:46</t>
+  </si>
+  <si>
+    <t>peas (?)</t>
+  </si>
+  <si>
+    <t>estimated date</t>
+  </si>
+  <si>
+    <t>Email from Erin Brooks, 2016-08-25 9:46</t>
+  </si>
+  <si>
+    <t>probably winter wheat in September?</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1756,51 +1816,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1828,19 +1861,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1859,6 +1882,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1875,23 +1944,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Disturbance_and_Management"/>
-      <sheetName val="LIST(Vocabulary)"/>
-      <sheetName val="Explanations"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2161,12 +2213,12 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="12.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="11" customWidth="1"/>
@@ -2180,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -2195,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,13 +2261,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15">
         <v>2</v>
@@ -2230,16 +2282,16 @@
         <v>25</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2251,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>12</v>
@@ -2265,35 +2317,35 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="25">
+      <c r="B6" s="51">
         <v>41395</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>15</v>
@@ -2307,12 +2359,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>21</v>
@@ -2329,20 +2381,20 @@
       <c r="B8" s="10">
         <v>41508</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>12</v>
@@ -2368,14 +2420,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="25">
+      <c r="B10" s="51">
         <v>41552</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -2389,12 +2441,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>58</v>
+      <c r="D11" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>18</v>
@@ -2408,14 +2460,14 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="15">
         <v>2</v>
@@ -2423,14 +2475,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="15">
         <v>2</v>
@@ -2445,13 +2497,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="15">
         <v>2</v>
@@ -2466,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>12</v>
@@ -2508,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -2517,7 +2569,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2529,7 +2581,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>16</v>
@@ -2568,7 +2620,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>21</v>
@@ -2577,7 +2629,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,14 +2639,14 @@
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="15">
         <v>4</v>
@@ -2608,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>12</v>
@@ -2636,14 +2688,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C16"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="12.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="11" customWidth="1"/>
@@ -2657,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -2672,7 +2724,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,28 +2738,28 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="17">
+      <c r="B3" s="60">
         <v>40838</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2716,17 +2768,17 @@
         <v>24</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>34</v>
+      <c r="D4" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>18</v>
@@ -2735,37 +2787,37 @@
         <v>19</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2779,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -2788,21 +2840,21 @@
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>2013</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="60">
         <v>41396</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2811,17 +2863,17 @@
         <v>24</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>16</v>
@@ -2830,7 +2882,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2838,20 +2890,20 @@
       <c r="B10" s="14">
         <v>41508</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2863,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -2872,7 +2924,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2884,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>16</v>
@@ -2893,19 +2945,19 @@
         <v>23</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="19">
+      <c r="B13" s="55">
         <v>41557</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>21</v>
@@ -2914,17 +2966,17 @@
         <v>24</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
+      <c r="D14" s="54" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>18</v>
@@ -2933,37 +2985,37 @@
         <v>19</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2977,7 +3029,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>12</v>
@@ -2986,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3000,7 +3052,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>21</v>
@@ -3009,19 +3061,19 @@
         <v>24</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="19">
+      <c r="B19" s="55">
         <v>42154</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>35</v>
+      <c r="D19" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>18</v>
@@ -3030,37 +3082,37 @@
         <v>19</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3072,7 +3124,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>12</v>
@@ -3086,14 +3138,14 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="34">
+      <c r="B23" s="57">
         <v>42293</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>12</v>
@@ -3107,12 +3159,12 @@
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>21</v>
@@ -3121,16 +3173,16 @@
         <v>24</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>36</v>
+      <c r="D25" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>18</v>
@@ -3139,35 +3191,35 @@
         <v>19</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3175,17 +3227,17 @@
       <c r="B28" s="14">
         <v>42571</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="F28" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="15">
         <v>4</v>
@@ -3199,7 +3251,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>12</v>
@@ -3213,12 +3265,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B23:B27"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="B8:B9"/>
@@ -3226,6 +3272,12 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3234,16 +3286,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="12.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="11" customWidth="1"/>
@@ -3257,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -3272,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,13 +3338,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15">
         <v>2</v>
@@ -3300,14 +3352,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="25">
+      <c r="B3" s="51">
         <v>41013</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>16</v>
@@ -3316,23 +3368,23 @@
         <v>23</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="27"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>153</v>
+      <c r="D4" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="15">
         <v>17</v>
@@ -3340,14 +3392,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="25">
+      <c r="B5" s="51">
         <v>41038</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>154</v>
+      <c r="D5" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>18</v>
@@ -3356,26 +3408,26 @@
         <v>19</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="27"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>75</v>
+      <c r="F6" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3387,16 +3439,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3408,28 +3460,28 @@
         <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="25">
+      <c r="B9" s="51">
         <v>41150</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>156</v>
+      <c r="D9" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -3437,39 +3489,37 @@
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="69">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="27"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>157</v>
+      <c r="D10" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>152</v>
+        <v>31</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="10">
-        <v>41150</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>21</v>
@@ -3477,28 +3527,28 @@
       <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="50">
+      <c r="F12" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="35">
         <v>2</v>
       </c>
     </row>
@@ -3511,7 +3561,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>12</v>
@@ -3520,7 +3570,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,8 +3584,8 @@
       <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>75</v>
+      <c r="F14" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="15">
         <v>2</v>
@@ -3552,8 +3602,8 @@
       <c r="E15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>75</v>
+      <c r="F15" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G15" s="15">
         <v>2</v>
@@ -3561,50 +3611,86 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="25">
-        <v>41877</v>
+      <c r="B16" s="20" t="s">
+        <v>284</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="23"/>
       <c r="G16" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="51">
+        <v>41877</v>
+      </c>
       <c r="C17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G17" s="15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>42195</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="15">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3613,11 +3699,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,10 +3719,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -3651,72 +3737,72 @@
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="28">
         <v>2012</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="C3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="30">
+        <v>41019</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="45">
-        <v>41019</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="44" t="s">
+      <c r="G4" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3728,13 +3814,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="15">
         <v>2</v>
@@ -3743,13 +3829,13 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>12</v>
@@ -3758,7 +3844,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3770,7 +3856,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>14</v>
@@ -3778,28 +3864,28 @@
       <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="38">
         <v>2</v>
       </c>
     </row>
@@ -3812,7 +3898,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>16</v>
@@ -3820,28 +3906,28 @@
       <c r="F9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="42">
+      <c r="B10" s="27">
         <v>41391</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="39">
         <v>18</v>
       </c>
     </row>
@@ -3850,41 +3936,41 @@
       <c r="B11" s="14">
         <v>41393</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="38">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="34">
+      <c r="B12" s="57">
         <v>41395</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="39" t="s">
-        <v>160</v>
+      <c r="B13" s="58"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="64" t="s">
+        <v>157</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>18</v>
@@ -3892,35 +3978,35 @@
       <c r="F13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="61">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="G15" s="63"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -3939,20 +4025,20 @@
       <c r="F16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="34">
+      <c r="B17" s="57">
         <v>41430</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="64" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>16</v>
@@ -3960,16 +4046,16 @@
       <c r="F17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="37" t="s">
-        <v>161</v>
+      <c r="B18" s="59"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>11</v>
@@ -3977,7 +4063,7 @@
       <c r="F18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="25">
         <v>18</v>
       </c>
     </row>
@@ -3990,7 +4076,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>12</v>
@@ -3998,8 +4084,8 @@
       <c r="F19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>163</v>
+      <c r="G19" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4019,7 +4105,7 @@
       <c r="F20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="25">
         <v>2</v>
       </c>
     </row>
@@ -4040,7 +4126,7 @@
       <c r="F21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="25">
         <v>2</v>
       </c>
     </row>
@@ -4061,7 +4147,7 @@
       <c r="F22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="25">
         <v>2</v>
       </c>
     </row>
@@ -4074,7 +4160,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>21</v>
@@ -4082,27 +4168,29 @@
       <c r="F23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="E24" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>106</v>
+      <c r="G24" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4113,57 +4201,65 @@
       <c r="C25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="42" t="s">
-        <v>99</v>
+      <c r="B26" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="38">
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="34">
+      <c r="B27" s="57">
         <v>41911</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="38">
+      <c r="E27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>12</v>
@@ -4171,50 +4267,50 @@
       <c r="F28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>47</v>
+      <c r="G28" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="19">
+      <c r="B29" s="55">
         <v>41911</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>41</v>
+      <c r="D29" s="64" t="s">
+        <v>40</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="38">
+        <v>41</v>
+      </c>
+      <c r="G29" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="38">
+        <v>31</v>
+      </c>
+      <c r="G30" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="42" t="s">
-        <v>100</v>
+      <c r="B31" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>26</v>
@@ -4222,30 +4318,34 @@
       <c r="D31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="38">
+      <c r="E31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="41" t="s">
-        <v>49</v>
+      <c r="D32" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="38">
+        <v>41</v>
+      </c>
+      <c r="G32" s="25">
         <v>3</v>
       </c>
     </row>
@@ -4258,7 +4358,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>16</v>
@@ -4266,7 +4366,7 @@
       <c r="F33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="25">
         <v>8</v>
       </c>
     </row>
@@ -4279,7 +4379,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>12</v>
@@ -4287,90 +4387,127 @@
       <c r="F34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="14">
-        <v>42480</v>
+      <c r="B35" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="38">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14">
+        <v>42480</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14">
         <v>42484</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G37" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="38"/>
-    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="38"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="27">
+        <v>42612</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="25">
+        <v>20</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="38"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="38"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -4378,13 +4515,7 @@
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4395,14 +4526,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="12.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="11" customWidth="1"/>
@@ -4416,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -4431,7 +4562,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4443,13 +4574,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15">
         <v>2</v>
@@ -4464,13 +4595,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="15">
         <v>16</v>
@@ -4479,7 +4610,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -4491,19 +4622,19 @@
         <v>6</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="25" t="s">
-        <v>143</v>
+      <c r="B5" s="51" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>148</v>
+      <c r="D5" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>18</v>
@@ -4512,17 +4643,17 @@
         <v>11</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="27"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>11</v>
@@ -4555,19 +4686,19 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>73</v>
+      <c r="D8" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>75</v>
+      <c r="F8" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G8" s="15">
         <v>2</v>
@@ -4576,10 +4707,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="68"/>
       <c r="G9" s="15">
         <v>2</v>
       </c>
@@ -4595,8 +4726,8 @@
       <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>75</v>
+      <c r="F10" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G10" s="15">
         <v>2</v>
@@ -4604,7 +4735,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="25">
+      <c r="B11" s="51">
         <v>41739</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -4625,12 +4756,12 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
@@ -4644,7 +4775,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="29">
+      <c r="B13" s="21">
         <v>41767</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4656,8 +4787,8 @@
       <c r="E13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>75</v>
+      <c r="F13" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G13" s="15">
         <v>2</v>
@@ -4665,14 +4796,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="29">
+      <c r="B14" s="21">
         <v>41913</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>16</v>
@@ -4686,7 +4817,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="29">
+      <c r="B15" s="21">
         <v>41915</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -4704,7 +4835,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="29">
+      <c r="B16" s="21">
         <v>41925</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -4713,8 +4844,8 @@
       <c r="E16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>75</v>
+      <c r="F16" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G16" s="15">
         <v>2</v>
@@ -4722,14 +4853,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="29">
+      <c r="B17" s="21">
         <v>41932</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -4743,8 +4874,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="30" t="s">
-        <v>72</v>
+      <c r="B18" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>6</v>
@@ -4761,7 +4892,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="29">
+      <c r="B19" s="21">
         <v>42235</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -4770,8 +4901,8 @@
       <c r="E19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>75</v>
+      <c r="F19" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G19" s="15">
         <v>2</v>
@@ -4779,17 +4910,17 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="29">
+      <c r="B20" s="21">
         <v>42264</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>75</v>
+      <c r="F20" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="G20" s="15">
         <v>2</v>
@@ -4809,27 +4940,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,10 +4979,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,10 +4990,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,10 +5001,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,10 +5012,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,10 +5023,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,10 +5034,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,10 +5045,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,10 +5056,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4936,10 +5067,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,10 +5078,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,10 +5089,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,10 +5100,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,10 +5111,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,10 +5122,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5002,7 +5133,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -5013,7 +5144,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -5024,10 +5155,32 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5047,47 +5200,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5108,839 +5261,839 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>282</v>
+      <c r="A1" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="C4" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="63" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="62" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="62" t="s">
+      <c r="E29" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="F36" s="46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="F42" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="F46" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="F50" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="62" t="s">
+      <c r="F55" s="46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="65" t="s">
+      <c r="F72" s="46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" s="46" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="65" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="65" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="65" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" s="65" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="65" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="65" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="65" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="65" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="65" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="65" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="65" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="65" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="65" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="65" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F74" s="65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="65" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
